--- a/data/trans_camb/P2A_senso_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2A_senso_R-Clase-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad sensorial</t>
+          <t>Hogares con personas con limitación por discapacidad sensorial</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,31</t>
+          <t>-1,11; 2,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 0,38</t>
+          <t>-2,03; 0,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 2,28</t>
+          <t>-0,89; 2,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 3,85</t>
+          <t>-1,71; 4,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,16; -0,48</t>
+          <t>-4,08; -0,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 1,56</t>
+          <t>-2,41; 1,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 2,43</t>
+          <t>-0,72; 2,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,34; -0,31</t>
+          <t>-2,32; -0,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,56</t>
+          <t>-0,82; 1,53</t>
         </is>
       </c>
     </row>
@@ -791,22 +791,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-65,9; 429,28</t>
+          <t>-69,14; 400,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 110,19</t>
+          <t>-100,0; 175,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-52,81; 346,98</t>
+          <t>-47,69; 386,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-56,59; 357,45</t>
+          <t>-59,32; 412,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,22 +816,22 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-62,35; 148,99</t>
+          <t>-62,4; 140,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,51; 219,48</t>
+          <t>-36,16; 254,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-93,8; -9,32</t>
+          <t>-93,58; -6,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-35,55; 148,61</t>
+          <t>-36,06; 144,36</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 0,14</t>
+          <t>-3,1; 0,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 0,49</t>
+          <t>-2,84; 0,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 3,08</t>
+          <t>-1,16; 3,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 2,28</t>
+          <t>-1,0; 2,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 2,39</t>
+          <t>-0,65; 2,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 3,32</t>
+          <t>-0,13; 3,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,64</t>
+          <t>-1,43; 0,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,0</t>
+          <t>-1,24; 0,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 2,66</t>
+          <t>-0,14; 2,61</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-94,29; 118,82</t>
+          <t>-100,0; 71,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 95,56</t>
+          <t>-90,94; 140,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,3; 344,42</t>
+          <t>-51,94; 308,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1027,27 +1027,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-71,77; —</t>
+          <t>-68,22; 1031,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,87; 1291,28</t>
+          <t>-34,45; 1031,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-78,34; 96,74</t>
+          <t>-75,53; 106,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-68,66; 137,67</t>
+          <t>-66,14; 120,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 329,84</t>
+          <t>-19,3; 326,56</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 2,78</t>
+          <t>-0,29; 2,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,68</t>
+          <t>-0,95; 1,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,85</t>
+          <t>-0,86; 2,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 2,8</t>
+          <t>-2,96; 2,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 3,8</t>
+          <t>-3,13; 3,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 7,25</t>
+          <t>-0,95; 7,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 2,3</t>
+          <t>-0,23; 2,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 1,25</t>
+          <t>-1,11; 1,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 3,23</t>
+          <t>-0,73; 3,22</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,22; 831,01</t>
+          <t>-34,83; 640,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-81,67; 520,38</t>
+          <t>-76,64; 492,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-52,94; 566,68</t>
+          <t>-58,27; 534,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-79,82; 618,57</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-62,53; 1361,83</t>
+          <t>-55,67; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-23,32; 386,03</t>
+          <t>-19,11; 422,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-69,52; 223,04</t>
+          <t>-68,51; 272,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-31,79; 415,53</t>
+          <t>-36,65; 419,07</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 1,35</t>
+          <t>-0,88; 1,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 0,32</t>
+          <t>-1,84; 0,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,78</t>
+          <t>-0,66; 1,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,45</t>
+          <t>-0,34; 2,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 0,84</t>
+          <t>-1,58; 0,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,38; 57,63</t>
+          <t>0,32; 57,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 1,43</t>
+          <t>-0,31; 1,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 0,24</t>
+          <t>-1,39; 0,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,37; 38,52</t>
+          <t>0,36; 36,0</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-43,84; 107,05</t>
+          <t>-40,45; 120,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-75,87; 30,62</t>
+          <t>-78,04; 18,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,14; 140,04</t>
+          <t>-33,22; 136,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,11; 292,72</t>
+          <t>-24,16; 312,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-73,8; 106,85</t>
+          <t>-69,59; 144,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>21,4; 8644,91</t>
+          <t>14,36; 8029,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-17,32; 117,11</t>
+          <t>-16,12; 117,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-64,62; 20,1</t>
+          <t>-65,48; 16,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>20,78; 2876,42</t>
+          <t>19,9; 2624,14</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 0,24</t>
+          <t>-3,56; 0,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 0,68</t>
+          <t>-3,07; 0,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 2,78</t>
+          <t>-1,85; 2,99</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,89</t>
+          <t>-0,81; 2,05</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,11</t>
+          <t>-1,34; 1,12</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,2</t>
+          <t>1,24; 4,37</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 0,93</t>
+          <t>-1,3; 0,93</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,67</t>
+          <t>-1,59; 0,66</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,24</t>
+          <t>0,59; 3,2</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-90,35; 35,22</t>
+          <t>-91,27; 43,35</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-82,74; 69,23</t>
+          <t>-80,26; 92,65</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-53,88; 219,44</t>
+          <t>-52,63; 260,99</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-45,15; 332,72</t>
+          <t>-45,08; 338,15</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-68,91; 180,25</t>
+          <t>-67,69; 191,96</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>46,77; 711,07</t>
+          <t>43,36; 784,27</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-57,55; 83,64</t>
+          <t>-54,64; 88,3</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-63,47; 75,92</t>
+          <t>-61,96; 69,87</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>24,29; 291,92</t>
+          <t>18,31; 281,12</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 4,17</t>
+          <t>-0,84; 3,94</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 1,0</t>
+          <t>-1,98; 1,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 0,85</t>
+          <t>-2,09; 0,76</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 1,3</t>
+          <t>-1,11; 1,32</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,21; -0,13</t>
+          <t>-2,04; -0,1</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 2,38</t>
+          <t>-0,13; 2,36</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 1,44</t>
+          <t>-0,78; 1,2</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,76; -0,07</t>
+          <t>-1,78; -0,07</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 1,73</t>
+          <t>-0,34; 1,7</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-43,57; 94,7</t>
+          <t>-44,15; 92,46</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-80,68; -3,41</t>
+          <t>-80,14; 1,33</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 157,1</t>
+          <t>-6,1; 165,89</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-32,26; 110,3</t>
+          <t>-37,43; 87,83</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-76,75; 3,48</t>
+          <t>-77,34; 0,07</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-13,88; 128,66</t>
+          <t>-14,77; 137,24</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,81</t>
+          <t>-0,57; 0,74</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 0,09</t>
+          <t>-1,09; 0,07</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 1,4</t>
+          <t>-0,11; 1,45</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 1,16</t>
+          <t>-0,18; 1,14</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,13; -0,0</t>
+          <t>-1,2; -0,04</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,04; 24,16</t>
+          <t>1,06; 23,77</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 0,77</t>
+          <t>-0,11; 0,77</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,98; -0,15</t>
+          <t>-0,99; -0,2</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,8; 15,05</t>
+          <t>0,85; 13,67</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-27,12; 61,64</t>
+          <t>-31,08; 59,55</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-59,24; 9,01</t>
+          <t>-58,16; 8,07</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 112,41</t>
+          <t>-7,83; 108,46</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 84,9</t>
+          <t>-10,45; 84,01</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-57,06; 1,18</t>
+          <t>-58,82; -2,21</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>58,23; 1664,14</t>
+          <t>59,66; 1606,48</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 56,82</t>
+          <t>-6,59; 55,49</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-52,5; -10,85</t>
+          <t>-53,48; -13,9</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>46,92; 1044,62</t>
+          <t>49,92; 903,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_senso_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2A_senso_R-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
